--- a/data/trans_camb/P25_11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_11-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 11,12</t>
+          <t>-15,85; 13,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 6,77</t>
+          <t>-15,96; 13,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 4,66</t>
+          <t>-16,83; 21,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 4,98</t>
+          <t>-14,39; 15,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,49</t>
+          <t>-16,13; 14,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 3,75</t>
+          <t>-19,5; 11,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 12,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; 9,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,97; 11,93</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>-6,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,13%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,04%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-7,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,97%</t>
+          <t>-16,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,41; 307,12</t>
+          <t>-80,17; 237,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,26; 166,73</t>
+          <t>-77,56; 252,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 34,51</t>
+          <t>-68,12; 350,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,76; 31,76</t>
+          <t>-55,46; 141,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 52,28</t>
+          <t>-62,0; 125,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 40,47</t>
+          <t>-69,84; 100,69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-46,56; 107,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,22; 79,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-54,87; 110,72</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,6</t>
+          <t>-5,62; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,82</t>
+          <t>-4,48; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,49</t>
+          <t>-3,25; 7,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,57</t>
+          <t>-4,82; 7,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,0</t>
+          <t>-3,75; 8,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,36</t>
+          <t>0,39; 13,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 3,7</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 4,3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 8,64</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,71%</t>
+          <t>-25,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>69,26%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>56,72%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,37; 152,21</t>
+          <t>-82,16; 149,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,35; 309,7</t>
+          <t>-67,59; 223,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 78,83</t>
+          <t>-56,74; 355,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 110,63</t>
+          <t>-40,51; 125,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 58,74</t>
+          <t>-30,1; 124,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 100,22</t>
+          <t>-1,72; 207,85</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-42,73; 72,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-36,39; 86,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 169,65</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,21</t>
+          <t>-5,4; 4,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,27</t>
+          <t>-4,97; 5,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 10,22</t>
+          <t>-3,69; 8,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,24</t>
+          <t>-3,37; 7,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,07</t>
+          <t>-4,56; 5,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,98</t>
+          <t>-4,26; 5,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 4,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 3,78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 4,73</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,52%</t>
+          <t>-9,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>3,58%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23,71%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,99; 141,67</t>
+          <t>-83,01; 292,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,05; 153,13</t>
+          <t>-79,27; 352,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 269,37</t>
+          <t>-67,11; 615,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 143,27</t>
+          <t>-48,24; 292,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 144,1</t>
+          <t>-63,26; 193,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 80,47</t>
+          <t>-61,1; 176,41</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-48,21; 134,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,09; 134,97</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-43,65; 157,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 58,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 111,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 58,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 47,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 37,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 40,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 2,52</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 2,68</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 6,37</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 5,17</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 5,26</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 8,19</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 2,93</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 2,82</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 5,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-15,93%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-5,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>44,95%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>37,59%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-62,4; 64,62</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-53,91; 73,09</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-22,44; 155,98</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-24,89; 74,04</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-23,33; 72,78</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 113,32</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 46,81</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,32; 44,97</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 91,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
